--- a/tests/EasyExcel.Tests/TestFiles/Employees.xlsx
+++ b/tests/EasyExcel.Tests/TestFiles/Employees.xlsx
@@ -29,604 +29,604 @@
     <t>Weight</t>
   </si>
   <si>
-    <t>Christopher Jacobi</t>
-  </si>
-  <si>
-    <t>1982-04-04 00:19:28</t>
-  </si>
-  <si>
-    <t>Santiago Koss</t>
-  </si>
-  <si>
-    <t>1989-09-01 15:36:00</t>
-  </si>
-  <si>
-    <t>Scott Lindgren</t>
-  </si>
-  <si>
-    <t>1967-04-19 23:31:40</t>
-  </si>
-  <si>
-    <t>Morris Schimmel</t>
-  </si>
-  <si>
-    <t>1961-10-11 21:18:09</t>
-  </si>
-  <si>
-    <t>Robert Herzog</t>
-  </si>
-  <si>
-    <t>1987-11-11 12:23:09</t>
-  </si>
-  <si>
-    <t>Tyrone Kuphal</t>
-  </si>
-  <si>
-    <t>1975-09-29 19:27:19</t>
-  </si>
-  <si>
-    <t>Wilbur Mante</t>
-  </si>
-  <si>
-    <t>1979-11-07 07:30:40</t>
-  </si>
-  <si>
-    <t>Jeff Parker</t>
-  </si>
-  <si>
-    <t>1979-12-19 22:21:10</t>
-  </si>
-  <si>
-    <t>Fredrick Okuneva</t>
-  </si>
-  <si>
-    <t>2001-06-11 19:12:31</t>
-  </si>
-  <si>
-    <t>Justin Wisozk</t>
-  </si>
-  <si>
-    <t>1990-08-10 09:03:00</t>
-  </si>
-  <si>
-    <t>Anthony Connelly</t>
-  </si>
-  <si>
-    <t>1956-07-09 10:35:24</t>
-  </si>
-  <si>
-    <t>Allen Gutkowski</t>
-  </si>
-  <si>
-    <t>1947-10-10 14:21:16</t>
-  </si>
-  <si>
-    <t>Lorenzo Stroman</t>
-  </si>
-  <si>
-    <t>1963-12-25 16:12:32</t>
-  </si>
-  <si>
-    <t>Lionel Keebler</t>
-  </si>
-  <si>
-    <t>1999-08-08 06:42:28</t>
-  </si>
-  <si>
-    <t>Freddie Daugherty</t>
-  </si>
-  <si>
-    <t>1984-04-03 09:28:39</t>
-  </si>
-  <si>
-    <t>Dave Monahan</t>
-  </si>
-  <si>
-    <t>1972-09-29 00:46:43</t>
-  </si>
-  <si>
-    <t>Dan Braun</t>
-  </si>
-  <si>
-    <t>1944-11-10 21:38:54</t>
-  </si>
-  <si>
-    <t>Joe Lynch</t>
-  </si>
-  <si>
-    <t>1955-06-07 13:34:44</t>
-  </si>
-  <si>
-    <t>Damon Raynor</t>
-  </si>
-  <si>
-    <t>1974-04-19 04:49:47</t>
-  </si>
-  <si>
-    <t>Willie Mohr</t>
-  </si>
-  <si>
-    <t>1983-08-12 09:20:05</t>
-  </si>
-  <si>
-    <t>Herbert Corkery</t>
-  </si>
-  <si>
-    <t>1952-02-20 13:49:03</t>
-  </si>
-  <si>
-    <t>Leon Bogisich</t>
-  </si>
-  <si>
-    <t>1956-03-19 12:38:52</t>
-  </si>
-  <si>
-    <t>Evan Leannon</t>
-  </si>
-  <si>
-    <t>1963-04-17 06:49:58</t>
-  </si>
-  <si>
-    <t>Doyle Balistreri</t>
-  </si>
-  <si>
-    <t>2000-11-18 06:47:54</t>
-  </si>
-  <si>
-    <t>Kurt Oberbrunner</t>
-  </si>
-  <si>
-    <t>1980-11-05 17:13:14</t>
-  </si>
-  <si>
-    <t>Nathaniel West</t>
-  </si>
-  <si>
-    <t>1944-04-10 23:59:36</t>
-  </si>
-  <si>
-    <t>Otis Price</t>
-  </si>
-  <si>
-    <t>1976-12-09 20:18:37</t>
-  </si>
-  <si>
-    <t>Douglas Olson</t>
-  </si>
-  <si>
-    <t>1999-03-25 20:13:15</t>
-  </si>
-  <si>
-    <t>Willie Schulist</t>
-  </si>
-  <si>
-    <t>1956-12-20 23:18:35</t>
-  </si>
-  <si>
-    <t>Ron Jenkins</t>
-  </si>
-  <si>
-    <t>1986-06-14 08:34:46</t>
-  </si>
-  <si>
-    <t>Kirk Paucek</t>
-  </si>
-  <si>
-    <t>1984-02-05 10:01:47</t>
-  </si>
-  <si>
-    <t>Warren Mills</t>
-  </si>
-  <si>
-    <t>1945-05-14 12:50:51</t>
-  </si>
-  <si>
-    <t>Domingo Haag</t>
-  </si>
-  <si>
-    <t>1989-10-05 09:00:01</t>
-  </si>
-  <si>
-    <t>Bruce Effertz</t>
-  </si>
-  <si>
-    <t>1946-06-09 11:33:57</t>
-  </si>
-  <si>
-    <t>Francisco Crona</t>
-  </si>
-  <si>
-    <t>1995-12-23 11:40:34</t>
-  </si>
-  <si>
-    <t>Emilio Rogahn</t>
-  </si>
-  <si>
-    <t>1964-01-04 12:27:00</t>
-  </si>
-  <si>
-    <t>Stanley Schoen</t>
-  </si>
-  <si>
-    <t>1997-04-12 05:16:54</t>
-  </si>
-  <si>
-    <t>Jack Bednar</t>
-  </si>
-  <si>
-    <t>2000-03-18 19:12:46</t>
-  </si>
-  <si>
-    <t>Christian Hintz</t>
-  </si>
-  <si>
-    <t>1985-01-25 07:23:35</t>
-  </si>
-  <si>
-    <t>Mitchell Spinka</t>
-  </si>
-  <si>
-    <t>1954-12-22 08:17:18</t>
-  </si>
-  <si>
-    <t>Willard Marks</t>
-  </si>
-  <si>
-    <t>1964-01-26 07:55:37</t>
-  </si>
-  <si>
-    <t>Ruben Stamm</t>
-  </si>
-  <si>
-    <t>1984-11-07 19:13:16</t>
-  </si>
-  <si>
-    <t>Juan Bernier</t>
-  </si>
-  <si>
-    <t>1974-01-28 13:14:50</t>
-  </si>
-  <si>
-    <t>Glen Herman</t>
-  </si>
-  <si>
-    <t>1970-12-07 02:11:51</t>
-  </si>
-  <si>
-    <t>Brendan Grimes</t>
-  </si>
-  <si>
-    <t>2002-09-22 00:13:17</t>
-  </si>
-  <si>
-    <t>Darren Jacobi</t>
-  </si>
-  <si>
-    <t>1959-12-29 01:39:57</t>
-  </si>
-  <si>
-    <t>Ian Zieme</t>
-  </si>
-  <si>
-    <t>1954-03-25 07:32:54</t>
-  </si>
-  <si>
-    <t>Edmund Hamill</t>
-  </si>
-  <si>
-    <t>1952-12-11 11:25:49</t>
-  </si>
-  <si>
-    <t>Manuel Buckridge</t>
-  </si>
-  <si>
-    <t>1994-11-10 16:27:17</t>
-  </si>
-  <si>
-    <t>Isaac Gulgowski</t>
-  </si>
-  <si>
-    <t>1948-03-10 14:35:08</t>
-  </si>
-  <si>
-    <t>Neal Runolfsdottir</t>
-  </si>
-  <si>
-    <t>1973-09-23 05:57:44</t>
-  </si>
-  <si>
-    <t>Derrick Reichert</t>
-  </si>
-  <si>
-    <t>1987-03-11 01:33:20</t>
-  </si>
-  <si>
-    <t>Jan Dach</t>
-  </si>
-  <si>
-    <t>1944-10-23 03:22:14</t>
-  </si>
-  <si>
-    <t>Bernard McClure</t>
-  </si>
-  <si>
-    <t>1974-04-07 18:58:44</t>
-  </si>
-  <si>
-    <t>Jean Tromp</t>
-  </si>
-  <si>
-    <t>1996-12-24 04:45:48</t>
-  </si>
-  <si>
-    <t>Isaac Hegmann</t>
-  </si>
-  <si>
-    <t>1994-01-14 00:16:46</t>
-  </si>
-  <si>
-    <t>Charlie Swaniawski</t>
-  </si>
-  <si>
-    <t>1964-08-21 10:17:19</t>
-  </si>
-  <si>
-    <t>Nicholas Welch</t>
-  </si>
-  <si>
-    <t>1947-04-23 20:45:37</t>
-  </si>
-  <si>
-    <t>Clarence Altenwerth</t>
-  </si>
-  <si>
-    <t>1987-09-07 20:34:08</t>
-  </si>
-  <si>
-    <t>Woodrow Cruickshank</t>
-  </si>
-  <si>
-    <t>1965-02-08 21:00:07</t>
-  </si>
-  <si>
-    <t>Woodrow Schuster</t>
-  </si>
-  <si>
-    <t>1977-05-30 19:03:50</t>
-  </si>
-  <si>
-    <t>Malcolm Spencer</t>
-  </si>
-  <si>
-    <t>1952-10-16 21:01:28</t>
-  </si>
-  <si>
-    <t>Tommie D'Amore</t>
-  </si>
-  <si>
-    <t>1959-01-19 19:13:30</t>
-  </si>
-  <si>
-    <t>Alvin Trantow</t>
-  </si>
-  <si>
-    <t>1997-09-29 20:53:53</t>
-  </si>
-  <si>
-    <t>Malcolm Adams</t>
-  </si>
-  <si>
-    <t>1993-03-16 03:24:55</t>
-  </si>
-  <si>
-    <t>Ralph Kuvalis</t>
-  </si>
-  <si>
-    <t>1976-11-05 01:07:06</t>
-  </si>
-  <si>
-    <t>Martin Johnson</t>
-  </si>
-  <si>
-    <t>1970-09-28 20:00:25</t>
-  </si>
-  <si>
-    <t>Emmett Tromp</t>
-  </si>
-  <si>
-    <t>1958-08-07 02:12:35</t>
-  </si>
-  <si>
-    <t>Clay Hayes</t>
-  </si>
-  <si>
-    <t>1964-02-07 00:31:27</t>
-  </si>
-  <si>
-    <t>Levi Pacocha</t>
-  </si>
-  <si>
-    <t>1965-01-24 19:51:26</t>
-  </si>
-  <si>
-    <t>Cameron Gulgowski</t>
-  </si>
-  <si>
-    <t>1961-04-29 10:35:40</t>
-  </si>
-  <si>
-    <t>Fernando Lubowitz</t>
-  </si>
-  <si>
-    <t>1954-12-17 12:34:03</t>
-  </si>
-  <si>
-    <t>Jonathan Kassulke</t>
-  </si>
-  <si>
-    <t>1962-11-13 19:45:35</t>
-  </si>
-  <si>
-    <t>Russell Schaefer</t>
-  </si>
-  <si>
-    <t>1962-09-26 19:00:36</t>
-  </si>
-  <si>
-    <t>Ed Ullrich</t>
-  </si>
-  <si>
-    <t>1989-02-28 04:30:24</t>
-  </si>
-  <si>
-    <t>Stuart Bayer</t>
-  </si>
-  <si>
-    <t>1947-01-11 10:31:14</t>
-  </si>
-  <si>
-    <t>Devin Stamm</t>
-  </si>
-  <si>
-    <t>1966-12-13 16:19:44</t>
-  </si>
-  <si>
-    <t>Kyle Windler</t>
-  </si>
-  <si>
-    <t>1977-03-07 09:10:55</t>
-  </si>
-  <si>
-    <t>Max Bailey</t>
-  </si>
-  <si>
-    <t>1964-04-15 00:34:23</t>
-  </si>
-  <si>
-    <t>Doug Marks</t>
-  </si>
-  <si>
-    <t>1958-10-26 23:19:16</t>
-  </si>
-  <si>
-    <t>Hector Rippin</t>
-  </si>
-  <si>
-    <t>1966-04-29 19:44:09</t>
-  </si>
-  <si>
-    <t>Amos Bernier</t>
-  </si>
-  <si>
-    <t>1961-01-19 14:42:32</t>
-  </si>
-  <si>
-    <t>Moses Schmidt</t>
-  </si>
-  <si>
-    <t>1997-07-26 15:07:06</t>
-  </si>
-  <si>
-    <t>Christopher Green</t>
-  </si>
-  <si>
-    <t>1994-09-25 15:38:35</t>
-  </si>
-  <si>
-    <t>Randall Stracke</t>
-  </si>
-  <si>
-    <t>1957-07-03 18:22:32</t>
-  </si>
-  <si>
-    <t>Allen Schuppe</t>
-  </si>
-  <si>
-    <t>1990-07-03 04:08:46</t>
-  </si>
-  <si>
-    <t>Randal West</t>
-  </si>
-  <si>
-    <t>1974-12-09 02:13:56</t>
-  </si>
-  <si>
-    <t>Rodolfo Oberbrunner</t>
-  </si>
-  <si>
-    <t>1946-08-04 10:47:56</t>
-  </si>
-  <si>
-    <t>Harvey Kozey</t>
-  </si>
-  <si>
-    <t>1991-04-12 03:51:03</t>
-  </si>
-  <si>
-    <t>Tony Weissnat</t>
-  </si>
-  <si>
-    <t>1965-12-28 19:54:54</t>
-  </si>
-  <si>
-    <t>Elijah Tillman</t>
-  </si>
-  <si>
-    <t>1978-03-02 09:58:48</t>
-  </si>
-  <si>
-    <t>Wesley Ortiz</t>
-  </si>
-  <si>
-    <t>1972-01-19 02:56:36</t>
-  </si>
-  <si>
-    <t>Manuel Schumm</t>
-  </si>
-  <si>
-    <t>1962-07-07 22:44:51</t>
-  </si>
-  <si>
-    <t>Dean Ankunding</t>
-  </si>
-  <si>
-    <t>1946-06-23 10:32:10</t>
-  </si>
-  <si>
-    <t>Robert Stark</t>
-  </si>
-  <si>
-    <t>1947-12-26 07:15:52</t>
-  </si>
-  <si>
-    <t>Benny Leffler</t>
-  </si>
-  <si>
-    <t>1957-04-23 19:35:01</t>
-  </si>
-  <si>
-    <t>Wilbert Parisian</t>
-  </si>
-  <si>
-    <t>1958-10-15 00:59:08</t>
-  </si>
-  <si>
-    <t>Ralph Weissnat</t>
-  </si>
-  <si>
-    <t>2002-07-14 15:57:32</t>
-  </si>
-  <si>
-    <t>Al Kozey</t>
-  </si>
-  <si>
-    <t>1964-03-27 03:15:04</t>
-  </si>
-  <si>
-    <t>Owen Miller</t>
-  </si>
-  <si>
-    <t>1975-09-14 09:38:18</t>
+    <t>Adam Braun</t>
+  </si>
+  <si>
+    <t>1952-05-02 09:52:20</t>
+  </si>
+  <si>
+    <t>Allen Swaniawski</t>
+  </si>
+  <si>
+    <t>1974-03-24 06:42:42</t>
+  </si>
+  <si>
+    <t>Guy Tromp</t>
+  </si>
+  <si>
+    <t>1992-02-18 00:08:43</t>
+  </si>
+  <si>
+    <t>Edgar Haag</t>
+  </si>
+  <si>
+    <t>1978-04-22 22:08:19</t>
+  </si>
+  <si>
+    <t>Matthew Feeney</t>
+  </si>
+  <si>
+    <t>1946-09-02 23:37:00</t>
+  </si>
+  <si>
+    <t>Douglas Lakin</t>
+  </si>
+  <si>
+    <t>1961-08-04 02:13:04</t>
+  </si>
+  <si>
+    <t>Willie Price</t>
+  </si>
+  <si>
+    <t>1946-12-10 12:12:44</t>
+  </si>
+  <si>
+    <t>Alberto Lang</t>
+  </si>
+  <si>
+    <t>1948-11-27 23:26:07</t>
+  </si>
+  <si>
+    <t>Jermaine Kemmer</t>
+  </si>
+  <si>
+    <t>1943-04-19 03:55:19</t>
+  </si>
+  <si>
+    <t>Gerard Lindgren</t>
+  </si>
+  <si>
+    <t>2001-11-24 02:55:21</t>
+  </si>
+  <si>
+    <t>Charlie Kulas</t>
+  </si>
+  <si>
+    <t>1965-03-08 09:17:36</t>
+  </si>
+  <si>
+    <t>Arturo Kreiger</t>
+  </si>
+  <si>
+    <t>1980-04-02 06:03:04</t>
+  </si>
+  <si>
+    <t>Alton Bashirian</t>
+  </si>
+  <si>
+    <t>1952-08-28 13:45:48</t>
+  </si>
+  <si>
+    <t>Gregory Powlowski</t>
+  </si>
+  <si>
+    <t>1984-05-19 23:29:11</t>
+  </si>
+  <si>
+    <t>Howard Von</t>
+  </si>
+  <si>
+    <t>1957-12-14 10:46:37</t>
+  </si>
+  <si>
+    <t>Thomas Goldner</t>
+  </si>
+  <si>
+    <t>1966-10-11 10:35:21</t>
+  </si>
+  <si>
+    <t>Tommie Morissette</t>
+  </si>
+  <si>
+    <t>1979-04-30 21:38:13</t>
+  </si>
+  <si>
+    <t>Guy Daugherty</t>
+  </si>
+  <si>
+    <t>1945-04-26 17:11:31</t>
+  </si>
+  <si>
+    <t>Roosevelt Hammes</t>
+  </si>
+  <si>
+    <t>1949-06-07 04:59:43</t>
+  </si>
+  <si>
+    <t>Daryl Murphy</t>
+  </si>
+  <si>
+    <t>1947-04-24 01:55:09</t>
+  </si>
+  <si>
+    <t>Spencer Feil</t>
+  </si>
+  <si>
+    <t>1966-07-26 01:52:00</t>
+  </si>
+  <si>
+    <t>Dennis Von</t>
+  </si>
+  <si>
+    <t>1998-05-07 12:55:57</t>
+  </si>
+  <si>
+    <t>Jonathon Schamberger</t>
+  </si>
+  <si>
+    <t>1999-02-17 22:36:49</t>
+  </si>
+  <si>
+    <t>Darnell Rath</t>
+  </si>
+  <si>
+    <t>2000-04-14 12:21:54</t>
+  </si>
+  <si>
+    <t>Santos Konopelski</t>
+  </si>
+  <si>
+    <t>1955-07-17 15:49:49</t>
+  </si>
+  <si>
+    <t>Irvin Hermann</t>
+  </si>
+  <si>
+    <t>1966-09-17 20:25:17</t>
+  </si>
+  <si>
+    <t>Ruben Schultz</t>
+  </si>
+  <si>
+    <t>1948-05-13 16:21:30</t>
+  </si>
+  <si>
+    <t>Lionel Stracke</t>
+  </si>
+  <si>
+    <t>1971-12-11 05:35:27</t>
+  </si>
+  <si>
+    <t>Ian MacGyver</t>
+  </si>
+  <si>
+    <t>1975-11-27 03:28:13</t>
+  </si>
+  <si>
+    <t>Harvey Grant</t>
+  </si>
+  <si>
+    <t>1972-08-11 13:20:59</t>
+  </si>
+  <si>
+    <t>Elmer Koelpin</t>
+  </si>
+  <si>
+    <t>1990-05-28 23:49:56</t>
+  </si>
+  <si>
+    <t>Rogelio Collier</t>
+  </si>
+  <si>
+    <t>1954-05-08 10:29:30</t>
+  </si>
+  <si>
+    <t>Stuart Goodwin</t>
+  </si>
+  <si>
+    <t>1948-06-02 22:20:16</t>
+  </si>
+  <si>
+    <t>Kim Cremin</t>
+  </si>
+  <si>
+    <t>1979-11-03 21:10:46</t>
+  </si>
+  <si>
+    <t>Ken Jakubowski</t>
+  </si>
+  <si>
+    <t>1963-09-09 09:47:27</t>
+  </si>
+  <si>
+    <t>Ruben Hackett</t>
+  </si>
+  <si>
+    <t>1988-11-12 07:23:18</t>
+  </si>
+  <si>
+    <t>Cecil Nitzsche</t>
+  </si>
+  <si>
+    <t>1955-03-01 11:42:15</t>
+  </si>
+  <si>
+    <t>Richard Metz</t>
+  </si>
+  <si>
+    <t>1992-04-27 08:55:21</t>
+  </si>
+  <si>
+    <t>Tom Senger</t>
+  </si>
+  <si>
+    <t>1953-08-18 01:23:25</t>
+  </si>
+  <si>
+    <t>Randolph Crist</t>
+  </si>
+  <si>
+    <t>1977-09-14 12:08:56</t>
+  </si>
+  <si>
+    <t>Toby Pacocha</t>
+  </si>
+  <si>
+    <t>1952-07-05 00:26:24</t>
+  </si>
+  <si>
+    <t>Dwight McKenzie</t>
+  </si>
+  <si>
+    <t>1986-12-13 13:57:42</t>
+  </si>
+  <si>
+    <t>Simon Kreiger</t>
+  </si>
+  <si>
+    <t>1983-12-27 10:57:20</t>
+  </si>
+  <si>
+    <t>Tyrone Jerde</t>
+  </si>
+  <si>
+    <t>1956-03-28 19:47:53</t>
+  </si>
+  <si>
+    <t>Darren Hirthe</t>
+  </si>
+  <si>
+    <t>1982-08-01 12:48:04</t>
+  </si>
+  <si>
+    <t>Lamar Hauck</t>
+  </si>
+  <si>
+    <t>1952-08-03 04:49:04</t>
+  </si>
+  <si>
+    <t>Jeffery Luettgen</t>
+  </si>
+  <si>
+    <t>1954-04-20 03:59:05</t>
+  </si>
+  <si>
+    <t>Omar Braun</t>
+  </si>
+  <si>
+    <t>1992-03-14 23:17:29</t>
+  </si>
+  <si>
+    <t>Frederick Berge</t>
+  </si>
+  <si>
+    <t>1962-12-06 14:31:45</t>
+  </si>
+  <si>
+    <t>Leonard Walter</t>
+  </si>
+  <si>
+    <t>1960-04-14 14:40:30</t>
+  </si>
+  <si>
+    <t>Fred Kreiger</t>
+  </si>
+  <si>
+    <t>1970-02-27 17:34:03</t>
+  </si>
+  <si>
+    <t>Ismael Wisoky</t>
+  </si>
+  <si>
+    <t>1949-04-12 10:37:41</t>
+  </si>
+  <si>
+    <t>Eddie Cronin</t>
+  </si>
+  <si>
+    <t>1958-10-11 09:27:27</t>
+  </si>
+  <si>
+    <t>Troy D'Amore</t>
+  </si>
+  <si>
+    <t>1981-06-21 23:39:54</t>
+  </si>
+  <si>
+    <t>Donnie Bradtke</t>
+  </si>
+  <si>
+    <t>1960-03-07 11:34:35</t>
+  </si>
+  <si>
+    <t>Donnie Nader</t>
+  </si>
+  <si>
+    <t>1954-12-22 00:37:10</t>
+  </si>
+  <si>
+    <t>Arthur Rutherford</t>
+  </si>
+  <si>
+    <t>1955-09-30 04:54:23</t>
+  </si>
+  <si>
+    <t>Spencer Wolf</t>
+  </si>
+  <si>
+    <t>1986-10-03 14:13:42</t>
+  </si>
+  <si>
+    <t>Jim Dickens</t>
+  </si>
+  <si>
+    <t>2001-07-22 22:53:42</t>
+  </si>
+  <si>
+    <t>Dewey Davis</t>
+  </si>
+  <si>
+    <t>1992-12-27 13:44:21</t>
+  </si>
+  <si>
+    <t>Wallace Wehner</t>
+  </si>
+  <si>
+    <t>1960-05-24 19:31:39</t>
+  </si>
+  <si>
+    <t>Gene Marquardt</t>
+  </si>
+  <si>
+    <t>1946-12-27 12:48:22</t>
+  </si>
+  <si>
+    <t>Lawrence Kihn</t>
+  </si>
+  <si>
+    <t>1996-05-10 00:14:00</t>
+  </si>
+  <si>
+    <t>Roland Sanford</t>
+  </si>
+  <si>
+    <t>1965-02-23 19:09:23</t>
+  </si>
+  <si>
+    <t>Eduardo Mraz</t>
+  </si>
+  <si>
+    <t>1997-06-28 15:47:21</t>
+  </si>
+  <si>
+    <t>Brian MacGyver</t>
+  </si>
+  <si>
+    <t>1993-03-16 06:41:39</t>
+  </si>
+  <si>
+    <t>Luther Borer</t>
+  </si>
+  <si>
+    <t>1993-09-12 00:50:24</t>
+  </si>
+  <si>
+    <t>Felipe Bednar</t>
+  </si>
+  <si>
+    <t>1970-04-25 04:22:15</t>
+  </si>
+  <si>
+    <t>Carlos Block</t>
+  </si>
+  <si>
+    <t>1973-09-19 16:32:34</t>
+  </si>
+  <si>
+    <t>Darnell Spinka</t>
+  </si>
+  <si>
+    <t>1969-08-25 08:11:51</t>
+  </si>
+  <si>
+    <t>Sheldon White</t>
+  </si>
+  <si>
+    <t>1948-04-23 03:04:05</t>
+  </si>
+  <si>
+    <t>Grant Kreiger</t>
+  </si>
+  <si>
+    <t>1986-10-23 15:15:22</t>
+  </si>
+  <si>
+    <t>Virgil Lockman</t>
+  </si>
+  <si>
+    <t>1988-08-03 01:53:46</t>
+  </si>
+  <si>
+    <t>Mathew Padberg</t>
+  </si>
+  <si>
+    <t>1988-05-27 04:31:48</t>
+  </si>
+  <si>
+    <t>Alfred Miller</t>
+  </si>
+  <si>
+    <t>1979-04-02 12:48:11</t>
+  </si>
+  <si>
+    <t>Jonathan Nader</t>
+  </si>
+  <si>
+    <t>1998-11-14 04:11:59</t>
+  </si>
+  <si>
+    <t>Stuart Erdman</t>
+  </si>
+  <si>
+    <t>1975-02-04 17:09:09</t>
+  </si>
+  <si>
+    <t>Theodore Halvorson</t>
+  </si>
+  <si>
+    <t>1988-08-05 10:05:05</t>
+  </si>
+  <si>
+    <t>Ricky Ortiz</t>
+  </si>
+  <si>
+    <t>1945-01-06 20:52:22</t>
+  </si>
+  <si>
+    <t>Ignacio Swift</t>
+  </si>
+  <si>
+    <t>1973-04-30 08:26:43</t>
+  </si>
+  <si>
+    <t>Pat D'Amore</t>
+  </si>
+  <si>
+    <t>1958-07-31 21:35:45</t>
+  </si>
+  <si>
+    <t>Cory Satterfield</t>
+  </si>
+  <si>
+    <t>1966-08-05 01:21:48</t>
+  </si>
+  <si>
+    <t>Bernard Crist</t>
+  </si>
+  <si>
+    <t>1969-02-28 14:24:01</t>
+  </si>
+  <si>
+    <t>Toby Brakus</t>
+  </si>
+  <si>
+    <t>1981-04-16 10:22:24</t>
+  </si>
+  <si>
+    <t>Dean Witting</t>
+  </si>
+  <si>
+    <t>1990-02-13 14:57:23</t>
+  </si>
+  <si>
+    <t>Billy Kutch</t>
+  </si>
+  <si>
+    <t>1959-10-04 19:39:42</t>
+  </si>
+  <si>
+    <t>Doyle Hessel</t>
+  </si>
+  <si>
+    <t>1943-10-24 22:37:17</t>
+  </si>
+  <si>
+    <t>Preston Waters</t>
+  </si>
+  <si>
+    <t>1956-02-21 23:33:04</t>
+  </si>
+  <si>
+    <t>Andrew Hoeger</t>
+  </si>
+  <si>
+    <t>1972-10-15 23:26:21</t>
+  </si>
+  <si>
+    <t>Simon Huel</t>
+  </si>
+  <si>
+    <t>1965-09-14 22:40:41</t>
+  </si>
+  <si>
+    <t>Lyle Spinka</t>
+  </si>
+  <si>
+    <t>1960-05-01 16:00:37</t>
+  </si>
+  <si>
+    <t>Gerardo Hirthe</t>
+  </si>
+  <si>
+    <t>1979-08-11 02:24:22</t>
+  </si>
+  <si>
+    <t>Brian Kerluke</t>
+  </si>
+  <si>
+    <t>1987-04-13 00:45:57</t>
+  </si>
+  <si>
+    <t>Willie Emmerich</t>
+  </si>
+  <si>
+    <t>1957-01-15 21:57:32</t>
+  </si>
+  <si>
+    <t>Van Hickle</t>
+  </si>
+  <si>
+    <t>2002-06-18 23:13:51</t>
+  </si>
+  <si>
+    <t>Harold Bernier</t>
+  </si>
+  <si>
+    <t>1958-10-23 15:32:30</t>
+  </si>
+  <si>
+    <t>John Bruen</t>
+  </si>
+  <si>
+    <t>1968-01-10 17:57:16</t>
+  </si>
+  <si>
+    <t>Darrin Hessel</t>
+  </si>
+  <si>
+    <t>1957-10-09 12:26:56</t>
+  </si>
+  <si>
+    <t>Dana West</t>
+  </si>
+  <si>
+    <t>1990-10-04 13:58:17</t>
+  </si>
+  <si>
+    <t>David Homenick</t>
+  </si>
+  <si>
+    <t>1961-08-04 10:43:00</t>
   </si>
 </sst>
 </file>
@@ -706,10 +706,10 @@
         <v>6</v>
       </c>
       <c r="D2" s="0">
-        <v>5.62</v>
+        <v>7.41</v>
       </c>
       <c r="E2" s="0">
-        <v>256.09</v>
+        <v>162.81</v>
       </c>
     </row>
     <row r="3">
@@ -723,10 +723,10 @@
         <v>8</v>
       </c>
       <c r="D3" s="0">
-        <v>6.72</v>
+        <v>6.62</v>
       </c>
       <c r="E3" s="0">
-        <v>274.37</v>
+        <v>387.32</v>
       </c>
     </row>
     <row r="4">
@@ -740,10 +740,10 @@
         <v>10</v>
       </c>
       <c r="D4" s="0">
-        <v>6.49</v>
+        <v>7.45</v>
       </c>
       <c r="E4" s="0">
-        <v>466.98</v>
+        <v>161.84</v>
       </c>
     </row>
     <row r="5">
@@ -757,10 +757,10 @@
         <v>12</v>
       </c>
       <c r="D5" s="0">
-        <v>5.82</v>
+        <v>7.55</v>
       </c>
       <c r="E5" s="0">
-        <v>385.18</v>
+        <v>398.99</v>
       </c>
     </row>
     <row r="6">
@@ -774,10 +774,10 @@
         <v>14</v>
       </c>
       <c r="D6" s="0">
-        <v>5.72</v>
+        <v>6.95</v>
       </c>
       <c r="E6" s="0">
-        <v>446.58</v>
+        <v>193.88</v>
       </c>
     </row>
     <row r="7">
@@ -791,10 +791,10 @@
         <v>16</v>
       </c>
       <c r="D7" s="0">
-        <v>7.32</v>
+        <v>5.43</v>
       </c>
       <c r="E7" s="0">
-        <v>413.58</v>
+        <v>461.09</v>
       </c>
     </row>
     <row r="8">
@@ -808,10 +808,10 @@
         <v>18</v>
       </c>
       <c r="D8" s="0">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="E8" s="0">
-        <v>484.22</v>
+        <v>309.07</v>
       </c>
     </row>
     <row r="9">
@@ -825,10 +825,10 @@
         <v>20</v>
       </c>
       <c r="D9" s="0">
-        <v>7.52</v>
+        <v>6.23</v>
       </c>
       <c r="E9" s="0">
-        <v>223.47</v>
+        <v>498.72</v>
       </c>
     </row>
     <row r="10">
@@ -842,10 +842,10 @@
         <v>22</v>
       </c>
       <c r="D10" s="0">
-        <v>7.62</v>
+        <v>7.31</v>
       </c>
       <c r="E10" s="0">
-        <v>470.89</v>
+        <v>440.18</v>
       </c>
     </row>
     <row r="11">
@@ -859,10 +859,10 @@
         <v>24</v>
       </c>
       <c r="D11" s="0">
-        <v>5.49</v>
+        <v>7.57</v>
       </c>
       <c r="E11" s="0">
-        <v>429.58</v>
+        <v>307.42</v>
       </c>
     </row>
     <row r="12">
@@ -876,10 +876,10 @@
         <v>26</v>
       </c>
       <c r="D12" s="0">
-        <v>5.16</v>
+        <v>5.12</v>
       </c>
       <c r="E12" s="0">
-        <v>293.87</v>
+        <v>415.3</v>
       </c>
     </row>
     <row r="13">
@@ -893,10 +893,10 @@
         <v>28</v>
       </c>
       <c r="D13" s="0">
-        <v>7.71</v>
+        <v>6.26</v>
       </c>
       <c r="E13" s="0">
-        <v>489.77</v>
+        <v>472.51</v>
       </c>
     </row>
     <row r="14">
@@ -910,10 +910,10 @@
         <v>30</v>
       </c>
       <c r="D14" s="0">
-        <v>5.65</v>
+        <v>7.1</v>
       </c>
       <c r="E14" s="0">
-        <v>197.88</v>
+        <v>215.29</v>
       </c>
     </row>
     <row r="15">
@@ -927,10 +927,10 @@
         <v>32</v>
       </c>
       <c r="D15" s="0">
-        <v>7.83</v>
+        <v>5.06</v>
       </c>
       <c r="E15" s="0">
-        <v>396.57</v>
+        <v>470.48</v>
       </c>
     </row>
     <row r="16">
@@ -944,10 +944,10 @@
         <v>34</v>
       </c>
       <c r="D16" s="0">
-        <v>6.16</v>
+        <v>6.01</v>
       </c>
       <c r="E16" s="0">
-        <v>377.19</v>
+        <v>383.15</v>
       </c>
     </row>
     <row r="17">
@@ -961,10 +961,10 @@
         <v>36</v>
       </c>
       <c r="D17" s="0">
-        <v>6.79</v>
+        <v>5.25</v>
       </c>
       <c r="E17" s="0">
-        <v>362.38</v>
+        <v>303.19</v>
       </c>
     </row>
     <row r="18">
@@ -978,10 +978,10 @@
         <v>38</v>
       </c>
       <c r="D18" s="0">
-        <v>7.94</v>
+        <v>5.91</v>
       </c>
       <c r="E18" s="0">
-        <v>202.43</v>
+        <v>387.92</v>
       </c>
     </row>
     <row r="19">
@@ -995,10 +995,10 @@
         <v>40</v>
       </c>
       <c r="D19" s="0">
-        <v>7.68</v>
+        <v>6.27</v>
       </c>
       <c r="E19" s="0">
-        <v>398.21</v>
+        <v>203.32</v>
       </c>
     </row>
     <row r="20">
@@ -1012,10 +1012,10 @@
         <v>42</v>
       </c>
       <c r="D20" s="0">
-        <v>5.7</v>
+        <v>5.84</v>
       </c>
       <c r="E20" s="0">
-        <v>262.63</v>
+        <v>439.45</v>
       </c>
     </row>
     <row r="21">
@@ -1029,10 +1029,10 @@
         <v>44</v>
       </c>
       <c r="D21" s="0">
-        <v>6.33</v>
+        <v>5.26</v>
       </c>
       <c r="E21" s="0">
-        <v>355.13</v>
+        <v>284.7</v>
       </c>
     </row>
     <row r="22">
@@ -1046,10 +1046,10 @@
         <v>46</v>
       </c>
       <c r="D22" s="0">
-        <v>7.52</v>
+        <v>7.74</v>
       </c>
       <c r="E22" s="0">
-        <v>331.48</v>
+        <v>192.12</v>
       </c>
     </row>
     <row r="23">
@@ -1063,10 +1063,10 @@
         <v>48</v>
       </c>
       <c r="D23" s="0">
-        <v>7.57</v>
+        <v>5.24</v>
       </c>
       <c r="E23" s="0">
-        <v>206.5</v>
+        <v>350.65</v>
       </c>
     </row>
     <row r="24">
@@ -1080,10 +1080,10 @@
         <v>50</v>
       </c>
       <c r="D24" s="0">
-        <v>6.94</v>
+        <v>7.53</v>
       </c>
       <c r="E24" s="0">
-        <v>497.83</v>
+        <v>441.22</v>
       </c>
     </row>
     <row r="25">
@@ -1097,10 +1097,10 @@
         <v>52</v>
       </c>
       <c r="D25" s="0">
-        <v>5.29</v>
+        <v>6.6</v>
       </c>
       <c r="E25" s="0">
-        <v>415.24</v>
+        <v>413.39</v>
       </c>
     </row>
     <row r="26">
@@ -1114,10 +1114,10 @@
         <v>54</v>
       </c>
       <c r="D26" s="0">
-        <v>6.55</v>
+        <v>6.3</v>
       </c>
       <c r="E26" s="0">
-        <v>262.84</v>
+        <v>234.74</v>
       </c>
     </row>
     <row r="27">
@@ -1131,10 +1131,10 @@
         <v>56</v>
       </c>
       <c r="D27" s="0">
-        <v>5.2</v>
+        <v>6.03</v>
       </c>
       <c r="E27" s="0">
-        <v>407.39</v>
+        <v>229.72</v>
       </c>
     </row>
     <row r="28">
@@ -1148,10 +1148,10 @@
         <v>58</v>
       </c>
       <c r="D28" s="0">
-        <v>5.16</v>
+        <v>6.26</v>
       </c>
       <c r="E28" s="0">
-        <v>205.5</v>
+        <v>431.82</v>
       </c>
     </row>
     <row r="29">
@@ -1165,10 +1165,10 @@
         <v>60</v>
       </c>
       <c r="D29" s="0">
-        <v>6.58</v>
+        <v>7.54</v>
       </c>
       <c r="E29" s="0">
-        <v>264.37</v>
+        <v>323.81</v>
       </c>
     </row>
     <row r="30">
@@ -1182,10 +1182,10 @@
         <v>62</v>
       </c>
       <c r="D30" s="0">
-        <v>5.75</v>
+        <v>5.35</v>
       </c>
       <c r="E30" s="0">
-        <v>243.83</v>
+        <v>406.09</v>
       </c>
     </row>
     <row r="31">
@@ -1199,10 +1199,10 @@
         <v>64</v>
       </c>
       <c r="D31" s="0">
-        <v>5.84</v>
+        <v>7.34</v>
       </c>
       <c r="E31" s="0">
-        <v>382.21</v>
+        <v>472.79</v>
       </c>
     </row>
     <row r="32">
@@ -1216,10 +1216,10 @@
         <v>66</v>
       </c>
       <c r="D32" s="0">
-        <v>7.26</v>
+        <v>6.62</v>
       </c>
       <c r="E32" s="0">
-        <v>309.26</v>
+        <v>332.55</v>
       </c>
     </row>
     <row r="33">
@@ -1233,10 +1233,10 @@
         <v>68</v>
       </c>
       <c r="D33" s="0">
-        <v>5.61</v>
+        <v>6.95</v>
       </c>
       <c r="E33" s="0">
-        <v>411.41</v>
+        <v>354.15</v>
       </c>
     </row>
     <row r="34">
@@ -1250,10 +1250,10 @@
         <v>70</v>
       </c>
       <c r="D34" s="0">
-        <v>7.99</v>
+        <v>7.74</v>
       </c>
       <c r="E34" s="0">
-        <v>321.29</v>
+        <v>474.42</v>
       </c>
     </row>
     <row r="35">
@@ -1267,10 +1267,10 @@
         <v>72</v>
       </c>
       <c r="D35" s="0">
-        <v>6.48</v>
+        <v>7.48</v>
       </c>
       <c r="E35" s="0">
-        <v>352.19</v>
+        <v>373.95</v>
       </c>
     </row>
     <row r="36">
@@ -1284,10 +1284,10 @@
         <v>74</v>
       </c>
       <c r="D36" s="0">
-        <v>5.48</v>
+        <v>7.88</v>
       </c>
       <c r="E36" s="0">
-        <v>257.51</v>
+        <v>170.4</v>
       </c>
     </row>
     <row r="37">
@@ -1301,10 +1301,10 @@
         <v>76</v>
       </c>
       <c r="D37" s="0">
-        <v>5.87</v>
+        <v>7.97</v>
       </c>
       <c r="E37" s="0">
-        <v>196.79</v>
+        <v>251.63</v>
       </c>
     </row>
     <row r="38">
@@ -1318,10 +1318,10 @@
         <v>78</v>
       </c>
       <c r="D38" s="0">
-        <v>5.51</v>
+        <v>6.15</v>
       </c>
       <c r="E38" s="0">
-        <v>301.46</v>
+        <v>481.85</v>
       </c>
     </row>
     <row r="39">
@@ -1335,10 +1335,10 @@
         <v>80</v>
       </c>
       <c r="D39" s="0">
-        <v>7.18</v>
+        <v>6.99</v>
       </c>
       <c r="E39" s="0">
-        <v>474.44</v>
+        <v>287.64</v>
       </c>
     </row>
     <row r="40">
@@ -1352,10 +1352,10 @@
         <v>82</v>
       </c>
       <c r="D40" s="0">
-        <v>7.88</v>
+        <v>5.88</v>
       </c>
       <c r="E40" s="0">
-        <v>184.04</v>
+        <v>361.37</v>
       </c>
     </row>
     <row r="41">
@@ -1369,10 +1369,10 @@
         <v>84</v>
       </c>
       <c r="D41" s="0">
-        <v>5.45</v>
+        <v>5.54</v>
       </c>
       <c r="E41" s="0">
-        <v>465.01</v>
+        <v>414.2</v>
       </c>
     </row>
     <row r="42">
@@ -1386,10 +1386,10 @@
         <v>86</v>
       </c>
       <c r="D42" s="0">
-        <v>5.37</v>
+        <v>7.65</v>
       </c>
       <c r="E42" s="0">
-        <v>329.92</v>
+        <v>429.36</v>
       </c>
     </row>
     <row r="43">
@@ -1403,10 +1403,10 @@
         <v>88</v>
       </c>
       <c r="D43" s="0">
-        <v>7.15</v>
+        <v>5.68</v>
       </c>
       <c r="E43" s="0">
-        <v>409.18</v>
+        <v>196.52</v>
       </c>
     </row>
     <row r="44">
@@ -1420,10 +1420,10 @@
         <v>90</v>
       </c>
       <c r="D44" s="0">
-        <v>5.36</v>
+        <v>7.66</v>
       </c>
       <c r="E44" s="0">
-        <v>184.51</v>
+        <v>419.1</v>
       </c>
     </row>
     <row r="45">
@@ -1437,10 +1437,10 @@
         <v>92</v>
       </c>
       <c r="D45" s="0">
-        <v>7.03</v>
+        <v>5.68</v>
       </c>
       <c r="E45" s="0">
-        <v>417.77</v>
+        <v>249.7</v>
       </c>
     </row>
     <row r="46">
@@ -1454,10 +1454,10 @@
         <v>94</v>
       </c>
       <c r="D46" s="0">
-        <v>5.52</v>
+        <v>6.2</v>
       </c>
       <c r="E46" s="0">
-        <v>313.55</v>
+        <v>381.05</v>
       </c>
     </row>
     <row r="47">
@@ -1471,10 +1471,10 @@
         <v>96</v>
       </c>
       <c r="D47" s="0">
-        <v>7.43</v>
+        <v>6.58</v>
       </c>
       <c r="E47" s="0">
-        <v>337.07</v>
+        <v>254.79</v>
       </c>
     </row>
     <row r="48">
@@ -1488,10 +1488,10 @@
         <v>98</v>
       </c>
       <c r="D48" s="0">
-        <v>7.34</v>
+        <v>5.48</v>
       </c>
       <c r="E48" s="0">
-        <v>451.34</v>
+        <v>450.92</v>
       </c>
     </row>
     <row r="49">
@@ -1505,10 +1505,10 @@
         <v>100</v>
       </c>
       <c r="D49" s="0">
-        <v>5.82</v>
+        <v>7.98</v>
       </c>
       <c r="E49" s="0">
-        <v>330.18</v>
+        <v>194.48</v>
       </c>
     </row>
     <row r="50">
@@ -1522,10 +1522,10 @@
         <v>102</v>
       </c>
       <c r="D50" s="0">
-        <v>5.74</v>
+        <v>7.53</v>
       </c>
       <c r="E50" s="0">
-        <v>211.44</v>
+        <v>387.03</v>
       </c>
     </row>
     <row r="51">
@@ -1539,10 +1539,10 @@
         <v>104</v>
       </c>
       <c r="D51" s="0">
-        <v>6.28</v>
+        <v>6.46</v>
       </c>
       <c r="E51" s="0">
-        <v>377.62</v>
+        <v>319.88</v>
       </c>
     </row>
     <row r="52">
@@ -1556,10 +1556,10 @@
         <v>106</v>
       </c>
       <c r="D52" s="0">
-        <v>7.55</v>
+        <v>5.48</v>
       </c>
       <c r="E52" s="0">
-        <v>310.85</v>
+        <v>263.25</v>
       </c>
     </row>
     <row r="53">
@@ -1573,10 +1573,10 @@
         <v>108</v>
       </c>
       <c r="D53" s="0">
-        <v>7.9</v>
+        <v>5.41</v>
       </c>
       <c r="E53" s="0">
-        <v>306.19</v>
+        <v>423.81</v>
       </c>
     </row>
     <row r="54">
@@ -1590,10 +1590,10 @@
         <v>110</v>
       </c>
       <c r="D54" s="0">
-        <v>7.95</v>
+        <v>5.55</v>
       </c>
       <c r="E54" s="0">
-        <v>283.26</v>
+        <v>352.66</v>
       </c>
     </row>
     <row r="55">
@@ -1607,10 +1607,10 @@
         <v>112</v>
       </c>
       <c r="D55" s="0">
-        <v>7.37</v>
+        <v>5.61</v>
       </c>
       <c r="E55" s="0">
-        <v>372.97</v>
+        <v>421.02</v>
       </c>
     </row>
     <row r="56">
@@ -1624,10 +1624,10 @@
         <v>114</v>
       </c>
       <c r="D56" s="0">
-        <v>5.22</v>
+        <v>5.38</v>
       </c>
       <c r="E56" s="0">
-        <v>405.1</v>
+        <v>173.54</v>
       </c>
     </row>
     <row r="57">
@@ -1641,10 +1641,10 @@
         <v>116</v>
       </c>
       <c r="D57" s="0">
-        <v>5.06</v>
+        <v>6.8</v>
       </c>
       <c r="E57" s="0">
-        <v>273.87</v>
+        <v>239.4</v>
       </c>
     </row>
     <row r="58">
@@ -1658,10 +1658,10 @@
         <v>118</v>
       </c>
       <c r="D58" s="0">
-        <v>7.72</v>
+        <v>5.89</v>
       </c>
       <c r="E58" s="0">
-        <v>245.58</v>
+        <v>235.94</v>
       </c>
     </row>
     <row r="59">
@@ -1675,10 +1675,10 @@
         <v>120</v>
       </c>
       <c r="D59" s="0">
-        <v>5.28</v>
+        <v>7.9</v>
       </c>
       <c r="E59" s="0">
-        <v>280.39</v>
+        <v>236.87</v>
       </c>
     </row>
     <row r="60">
@@ -1692,10 +1692,10 @@
         <v>122</v>
       </c>
       <c r="D60" s="0">
-        <v>5.82</v>
+        <v>7.54</v>
       </c>
       <c r="E60" s="0">
-        <v>459.66</v>
+        <v>237.23</v>
       </c>
     </row>
     <row r="61">
@@ -1709,10 +1709,10 @@
         <v>124</v>
       </c>
       <c r="D61" s="0">
-        <v>7.71</v>
+        <v>5.73</v>
       </c>
       <c r="E61" s="0">
-        <v>190.42</v>
+        <v>251.64</v>
       </c>
     </row>
     <row r="62">
@@ -1726,10 +1726,10 @@
         <v>126</v>
       </c>
       <c r="D62" s="0">
-        <v>7.03</v>
+        <v>7.33</v>
       </c>
       <c r="E62" s="0">
-        <v>296.89</v>
+        <v>247.18</v>
       </c>
     </row>
     <row r="63">
@@ -1743,10 +1743,10 @@
         <v>128</v>
       </c>
       <c r="D63" s="0">
-        <v>6.37</v>
+        <v>7.55</v>
       </c>
       <c r="E63" s="0">
-        <v>295.57</v>
+        <v>187.86</v>
       </c>
     </row>
     <row r="64">
@@ -1760,10 +1760,10 @@
         <v>130</v>
       </c>
       <c r="D64" s="0">
-        <v>7.37</v>
+        <v>6.82</v>
       </c>
       <c r="E64" s="0">
-        <v>402.37</v>
+        <v>388.32</v>
       </c>
     </row>
     <row r="65">
@@ -1777,10 +1777,10 @@
         <v>132</v>
       </c>
       <c r="D65" s="0">
-        <v>5.45</v>
+        <v>5.01</v>
       </c>
       <c r="E65" s="0">
-        <v>231.57</v>
+        <v>219.23</v>
       </c>
     </row>
     <row r="66">
@@ -1794,10 +1794,10 @@
         <v>134</v>
       </c>
       <c r="D66" s="0">
-        <v>5.16</v>
+        <v>5.95</v>
       </c>
       <c r="E66" s="0">
-        <v>211.3</v>
+        <v>262.24</v>
       </c>
     </row>
     <row r="67">
@@ -1811,10 +1811,10 @@
         <v>136</v>
       </c>
       <c r="D67" s="0">
-        <v>5.96</v>
+        <v>6.97</v>
       </c>
       <c r="E67" s="0">
-        <v>330.48</v>
+        <v>394.9</v>
       </c>
     </row>
     <row r="68">
@@ -1828,10 +1828,10 @@
         <v>138</v>
       </c>
       <c r="D68" s="0">
-        <v>6.48</v>
+        <v>7.15</v>
       </c>
       <c r="E68" s="0">
-        <v>188.87</v>
+        <v>285.74</v>
       </c>
     </row>
     <row r="69">
@@ -1845,10 +1845,10 @@
         <v>140</v>
       </c>
       <c r="D69" s="0">
-        <v>6.38</v>
+        <v>7.6</v>
       </c>
       <c r="E69" s="0">
-        <v>178.49</v>
+        <v>268.08</v>
       </c>
     </row>
     <row r="70">
@@ -1862,10 +1862,10 @@
         <v>142</v>
       </c>
       <c r="D70" s="0">
-        <v>6.19</v>
+        <v>5.08</v>
       </c>
       <c r="E70" s="0">
-        <v>270</v>
+        <v>485.81</v>
       </c>
     </row>
     <row r="71">
@@ -1879,10 +1879,10 @@
         <v>144</v>
       </c>
       <c r="D71" s="0">
-        <v>5.24</v>
+        <v>6.78</v>
       </c>
       <c r="E71" s="0">
-        <v>251.83</v>
+        <v>372.09</v>
       </c>
     </row>
     <row r="72">
@@ -1896,10 +1896,10 @@
         <v>146</v>
       </c>
       <c r="D72" s="0">
-        <v>6.21</v>
+        <v>7.98</v>
       </c>
       <c r="E72" s="0">
-        <v>464.17</v>
+        <v>302.83</v>
       </c>
     </row>
     <row r="73">
@@ -1913,10 +1913,10 @@
         <v>148</v>
       </c>
       <c r="D73" s="0">
-        <v>7.12</v>
+        <v>7.81</v>
       </c>
       <c r="E73" s="0">
-        <v>400.72</v>
+        <v>324.85</v>
       </c>
     </row>
     <row r="74">
@@ -1930,10 +1930,10 @@
         <v>150</v>
       </c>
       <c r="D74" s="0">
-        <v>7.1</v>
+        <v>6.98</v>
       </c>
       <c r="E74" s="0">
-        <v>438.2</v>
+        <v>213.88</v>
       </c>
     </row>
     <row r="75">
@@ -1947,10 +1947,10 @@
         <v>152</v>
       </c>
       <c r="D75" s="0">
-        <v>7.18</v>
+        <v>7.73</v>
       </c>
       <c r="E75" s="0">
-        <v>322.34</v>
+        <v>192.67</v>
       </c>
     </row>
     <row r="76">
@@ -1964,10 +1964,10 @@
         <v>154</v>
       </c>
       <c r="D76" s="0">
-        <v>5.82</v>
+        <v>6.75</v>
       </c>
       <c r="E76" s="0">
-        <v>171.32</v>
+        <v>383.86</v>
       </c>
     </row>
     <row r="77">
@@ -1981,10 +1981,10 @@
         <v>156</v>
       </c>
       <c r="D77" s="0">
-        <v>5.16</v>
+        <v>6.9</v>
       </c>
       <c r="E77" s="0">
-        <v>268.45</v>
+        <v>247.47</v>
       </c>
     </row>
     <row r="78">
@@ -1998,10 +1998,10 @@
         <v>158</v>
       </c>
       <c r="D78" s="0">
-        <v>5.62</v>
+        <v>5.47</v>
       </c>
       <c r="E78" s="0">
-        <v>256.72</v>
+        <v>486.39</v>
       </c>
     </row>
     <row r="79">
@@ -2015,10 +2015,10 @@
         <v>160</v>
       </c>
       <c r="D79" s="0">
-        <v>5.45</v>
+        <v>7.47</v>
       </c>
       <c r="E79" s="0">
-        <v>376.51</v>
+        <v>231.4</v>
       </c>
     </row>
     <row r="80">
@@ -2032,10 +2032,10 @@
         <v>162</v>
       </c>
       <c r="D80" s="0">
-        <v>5.42</v>
+        <v>5.32</v>
       </c>
       <c r="E80" s="0">
-        <v>443.73</v>
+        <v>214.44</v>
       </c>
     </row>
     <row r="81">
@@ -2049,10 +2049,10 @@
         <v>164</v>
       </c>
       <c r="D81" s="0">
-        <v>5.67</v>
+        <v>5.83</v>
       </c>
       <c r="E81" s="0">
-        <v>295.51</v>
+        <v>499.46</v>
       </c>
     </row>
     <row r="82">
@@ -2066,10 +2066,10 @@
         <v>166</v>
       </c>
       <c r="D82" s="0">
-        <v>7.5</v>
+        <v>5.9</v>
       </c>
       <c r="E82" s="0">
-        <v>414.37</v>
+        <v>297.88</v>
       </c>
     </row>
     <row r="83">
@@ -2083,10 +2083,10 @@
         <v>168</v>
       </c>
       <c r="D83" s="0">
-        <v>6.19</v>
+        <v>5.14</v>
       </c>
       <c r="E83" s="0">
-        <v>369.49</v>
+        <v>255.95</v>
       </c>
     </row>
     <row r="84">
@@ -2100,10 +2100,10 @@
         <v>170</v>
       </c>
       <c r="D84" s="0">
-        <v>6.4</v>
+        <v>5.45</v>
       </c>
       <c r="E84" s="0">
-        <v>437.09</v>
+        <v>315.84</v>
       </c>
     </row>
     <row r="85">
@@ -2117,10 +2117,10 @@
         <v>172</v>
       </c>
       <c r="D85" s="0">
-        <v>7.49</v>
+        <v>6.1</v>
       </c>
       <c r="E85" s="0">
-        <v>405.14</v>
+        <v>172.73</v>
       </c>
     </row>
     <row r="86">
@@ -2134,10 +2134,10 @@
         <v>174</v>
       </c>
       <c r="D86" s="0">
-        <v>7.88</v>
+        <v>6.96</v>
       </c>
       <c r="E86" s="0">
-        <v>233.87</v>
+        <v>477.38</v>
       </c>
     </row>
     <row r="87">
@@ -2151,10 +2151,10 @@
         <v>176</v>
       </c>
       <c r="D87" s="0">
-        <v>7.89</v>
+        <v>6.8</v>
       </c>
       <c r="E87" s="0">
-        <v>205.57</v>
+        <v>338.82</v>
       </c>
     </row>
     <row r="88">
@@ -2168,10 +2168,10 @@
         <v>178</v>
       </c>
       <c r="D88" s="0">
-        <v>5.22</v>
+        <v>5.88</v>
       </c>
       <c r="E88" s="0">
-        <v>240.7</v>
+        <v>324.59</v>
       </c>
     </row>
     <row r="89">
@@ -2185,10 +2185,10 @@
         <v>180</v>
       </c>
       <c r="D89" s="0">
-        <v>5.58</v>
+        <v>6.54</v>
       </c>
       <c r="E89" s="0">
-        <v>300.36</v>
+        <v>371.95</v>
       </c>
     </row>
     <row r="90">
@@ -2202,10 +2202,10 @@
         <v>182</v>
       </c>
       <c r="D90" s="0">
-        <v>5.03</v>
+        <v>7.37</v>
       </c>
       <c r="E90" s="0">
-        <v>238.66</v>
+        <v>211.11</v>
       </c>
     </row>
     <row r="91">
@@ -2219,10 +2219,10 @@
         <v>184</v>
       </c>
       <c r="D91" s="0">
-        <v>5.4</v>
+        <v>5.35</v>
       </c>
       <c r="E91" s="0">
-        <v>372.71</v>
+        <v>355.14</v>
       </c>
     </row>
     <row r="92">
@@ -2236,10 +2236,10 @@
         <v>186</v>
       </c>
       <c r="D92" s="0">
-        <v>6.68</v>
+        <v>6.93</v>
       </c>
       <c r="E92" s="0">
-        <v>338.07</v>
+        <v>167.08</v>
       </c>
     </row>
     <row r="93">
@@ -2253,10 +2253,10 @@
         <v>188</v>
       </c>
       <c r="D93" s="0">
-        <v>5.48</v>
+        <v>5.55</v>
       </c>
       <c r="E93" s="0">
-        <v>310.51</v>
+        <v>205.63</v>
       </c>
     </row>
     <row r="94">
@@ -2270,10 +2270,10 @@
         <v>190</v>
       </c>
       <c r="D94" s="0">
-        <v>5.8</v>
+        <v>6.31</v>
       </c>
       <c r="E94" s="0">
-        <v>336.78</v>
+        <v>307.08</v>
       </c>
     </row>
     <row r="95">
@@ -2287,10 +2287,10 @@
         <v>192</v>
       </c>
       <c r="D95" s="0">
-        <v>7.9</v>
+        <v>6.37</v>
       </c>
       <c r="E95" s="0">
-        <v>469.75</v>
+        <v>399.08</v>
       </c>
     </row>
     <row r="96">
@@ -2304,10 +2304,10 @@
         <v>194</v>
       </c>
       <c r="D96" s="0">
-        <v>7.61</v>
+        <v>6.91</v>
       </c>
       <c r="E96" s="0">
-        <v>496.79</v>
+        <v>314.06</v>
       </c>
     </row>
     <row r="97">
@@ -2321,10 +2321,10 @@
         <v>196</v>
       </c>
       <c r="D97" s="0">
-        <v>7.89</v>
+        <v>6.6</v>
       </c>
       <c r="E97" s="0">
-        <v>257.11</v>
+        <v>457.33</v>
       </c>
     </row>
     <row r="98">
@@ -2338,10 +2338,10 @@
         <v>198</v>
       </c>
       <c r="D98" s="0">
-        <v>6.79</v>
+        <v>7.02</v>
       </c>
       <c r="E98" s="0">
-        <v>212.99</v>
+        <v>326.77</v>
       </c>
     </row>
     <row r="99">
@@ -2355,10 +2355,10 @@
         <v>200</v>
       </c>
       <c r="D99" s="0">
-        <v>6.11</v>
+        <v>5.14</v>
       </c>
       <c r="E99" s="0">
-        <v>479.64</v>
+        <v>181.53</v>
       </c>
     </row>
     <row r="100">
@@ -2372,10 +2372,10 @@
         <v>202</v>
       </c>
       <c r="D100" s="0">
-        <v>7.62</v>
+        <v>6.32</v>
       </c>
       <c r="E100" s="0">
-        <v>269.34</v>
+        <v>498.78</v>
       </c>
     </row>
     <row r="101">
@@ -2389,10 +2389,10 @@
         <v>204</v>
       </c>
       <c r="D101" s="0">
-        <v>7.45</v>
+        <v>6.68</v>
       </c>
       <c r="E101" s="0">
-        <v>405.46</v>
+        <v>352.95</v>
       </c>
     </row>
   </sheetData>
